--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,21 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
@@ -79,13 +82,13 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>social</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,10 +460,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -518,13 +521,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -536,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -568,13 +571,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -586,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -610,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -618,13 +621,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -636,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0.8</v>
@@ -689,16 +692,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -739,16 +742,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.5866666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -760,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -768,13 +771,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.675</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -786,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>0.5172413793103449</v>
@@ -818,13 +821,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4492753623188406</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -836,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -860,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -868,13 +871,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4042553191489361</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -886,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.04280510018214936</v>
+        <v>0.03642987249544627</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -910,7 +913,33 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1051</v>
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.425531914893617</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
